--- a/tests/databooks/progbook_usdt.xlsx
+++ b/tests/databooks/progbook_usdt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{184149B9-7D22-EF44-A2BD-876A13AA642F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2ED48F62-2D45-E74D-B05B-D1BFC9E15A01}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0\ _k_r_._-;\-* #,##0\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _k_r_._-;\-* #,##0\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -215,10 +215,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -561,16 +561,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="1.33203125" customWidth="1"/>
     <col min="6" max="6" width="19.83203125" customWidth="1"/>
     <col min="7" max="7" width="1.83203125" customWidth="1"/>
@@ -816,6 +816,39 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E13" s="3"/>
     </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -825,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F51" activeCellId="8" sqref="F3 F9 F15 F21 F27 F33 F39 F45 F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1729,7 +1762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="I8:N8"/>
     </sheetView>
   </sheetViews>

--- a/tests/databooks/progbook_usdt.xlsx
+++ b/tests/databooks/progbook_usdt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2ED48F62-2D45-E74D-B05B-D1BFC9E15A01}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{51CC1485-B4CB-EC4D-B123-EA953B7D003D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="31">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -63,15 +63,6 @@
     <t>Capacity constraints</t>
   </si>
   <si>
-    <t>Unit cost: best</t>
-  </si>
-  <si>
-    <t>Unit cost: low</t>
-  </si>
-  <si>
-    <t>Unit cost: high</t>
-  </si>
-  <si>
     <t>Value for a person covered by this program alone:</t>
   </si>
   <si>
@@ -115,6 +106,15 @@
   </si>
   <si>
     <t>Online adherence course</t>
+  </si>
+  <si>
+    <t>Unit cost</t>
+  </si>
+  <si>
+    <t>Coverage interation</t>
+  </si>
+  <si>
+    <t>Impact interaction</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -617,10 +617,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="5">
@@ -639,10 +639,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="5">
@@ -661,10 +661,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="5">
@@ -683,10 +683,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="5">
@@ -705,10 +705,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="5">
@@ -727,10 +727,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="5">
@@ -749,10 +749,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="5">
@@ -771,10 +771,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="5">
@@ -793,10 +793,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="5">
@@ -856,11 +856,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F51" activeCellId="8" sqref="F3 F9 F15 F21 F27 F33 F39 F45 F51"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -932,7 +930,7 @@
         <v>Screening at pharmacies</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -947,44 +945,46 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="str">
-        <f>'Program targeting'!$C$3</f>
-        <v>Screening at pharmacies</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="5"/>
+      <c r="F6" s="10">
+        <f>F3/F5</f>
+        <v>2000</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="str">
-        <f>'Program targeting'!$C$3</f>
-        <v>Screening at pharmacies</v>
+        <f>'Program targeting'!$C$4</f>
+        <v>Screening at PHC</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="9">
+        <v>6300000</v>
+      </c>
+      <c r="G7" s="5"/>
       <c r="H7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F8" s="10">
-        <f>F3/F5</f>
-        <v>2000</v>
-      </c>
+      <c r="B8" s="4" t="str">
+        <f>'Program targeting'!$C$4</f>
+        <v>Screening at PHC</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="str">
@@ -992,12 +992,13 @@
         <v>Screening at PHC</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="9">
-        <v>6300000</v>
+      <c r="F9" s="5">
+        <f>21/0.07</f>
+        <v>299.99999999999994</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="2" t="s">
@@ -1006,35 +1007,23 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="str">
-        <f>'Program targeting'!$C$4</f>
-        <v>Screening at PHC</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="5"/>
+      <c r="F10" s="10">
+        <f>F7/F9</f>
+        <v>21000.000000000004</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="str">
-        <f>'Program targeting'!$C$4</f>
-        <v>Screening at PHC</v>
+        <f>'Program targeting'!$C$5</f>
+        <v>Screening via outreach</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="5">
-        <f>21/0.07</f>
-        <v>299.99999999999994</v>
+      <c r="F11" s="9">
+        <v>300000</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="2" t="s">
@@ -1044,48 +1033,51 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="str">
-        <f>'Program targeting'!$C$4</f>
-        <v>Screening at PHC</v>
+        <f>'Program targeting'!$C$5</f>
+        <v>Screening via outreach</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="str">
-        <f>'Program targeting'!$C$4</f>
-        <v>Screening at PHC</v>
+        <f>'Program targeting'!$C$5</f>
+        <v>Screening via outreach</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="5">
+        <f>30/0.2</f>
+        <v>150</v>
+      </c>
+      <c r="G13" s="7"/>
       <c r="H13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F14" s="10">
-        <f>F9/F11</f>
-        <v>21000.000000000004</v>
+        <f>F11/F13</f>
+        <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Screening via outreach</v>
+        <f>'Program targeting'!$C$6</f>
+        <v>Confirmatory test - doctor</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
@@ -1093,7 +1085,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="9">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="2" t="s">
@@ -1103,8 +1095,8 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Screening via outreach</v>
+        <f>'Program targeting'!$C$6</f>
+        <v>Confirmatory test - doctor</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>12</v>
@@ -1120,17 +1112,17 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Screening via outreach</v>
+        <f>'Program targeting'!$C$6</f>
+        <v>Confirmatory test - doctor</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="5">
-        <f>30/0.2</f>
-        <v>150</v>
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="2" t="s">
@@ -1139,33 +1131,24 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Screening via outreach</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="5"/>
+      <c r="F18" s="10">
+        <f>F15/F17</f>
+        <v>10000</v>
+      </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Screening via outreach</v>
+        <f>'Program targeting'!$C$7</f>
+        <v>Confirmatory test - nurse</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="9">
+        <v>150000</v>
+      </c>
       <c r="G19" s="5"/>
       <c r="H19" s="2" t="s">
         <v>11</v>
@@ -1173,74 +1156,73 @@
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F20" s="10">
-        <f>F15/F17</f>
-        <v>2000</v>
-      </c>
+      <c r="B20" s="4" t="str">
+        <f>'Program targeting'!$C$7</f>
+        <v>Confirmatory test - nurse</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Confirmatory test - doctor</v>
+        <f>'Program targeting'!$C$7</f>
+        <v>Confirmatory test - nurse</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="5">
         <v>10</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="9">
-        <v>250000</v>
-      </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="5"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Confirmatory test - doctor</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="5"/>
+      <c r="F22" s="10">
+        <f>F19/F21</f>
+        <v>15000</v>
+      </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Confirmatory test - doctor</v>
+        <f>'Program targeting'!$C$8</f>
+        <v>Treatment initiation counselling</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="5">
-        <f>25</f>
-        <v>25</v>
-      </c>
-      <c r="G23" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="9">
+        <v>2500000</v>
+      </c>
+      <c r="G23" s="5"/>
       <c r="H23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="7"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Confirmatory test - doctor</v>
+        <f>'Program targeting'!$C$8</f>
+        <v>Treatment initiation counselling</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1253,31 +1235,34 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Confirmatory test - doctor</v>
+        <f>'Program targeting'!$C$8</f>
+        <v>Treatment initiation counselling</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="5">
+        <f>250</f>
+        <v>250</v>
+      </c>
+      <c r="G25" s="7"/>
       <c r="H25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="5"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F26" s="10">
-        <f>F21/F23</f>
+        <f>F23/F25</f>
         <v>10000</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="str">
-        <f>'Program targeting'!$C$7</f>
-        <v>Confirmatory test - nurse</v>
+        <f>'Program targeting'!$C$9</f>
+        <v>Treatment initiation course</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>10</v>
@@ -1285,7 +1270,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="9">
-        <v>150000</v>
+        <v>1500000</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="2" t="s">
@@ -1295,8 +1280,8 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="str">
-        <f>'Program targeting'!$C$7</f>
-        <v>Confirmatory test - nurse</v>
+        <f>'Program targeting'!$C$9</f>
+        <v>Treatment initiation course</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>12</v>
@@ -1312,16 +1297,17 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="str">
-        <f>'Program targeting'!$C$7</f>
-        <v>Confirmatory test - nurse</v>
+        <f>'Program targeting'!$C$9</f>
+        <v>Treatment initiation course</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="5">
-        <v>10</v>
+        <f>300</f>
+        <v>300</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="2" t="s">
@@ -1330,33 +1316,24 @@
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="4" t="str">
-        <f>'Program targeting'!$C$7</f>
-        <v>Confirmatory test - nurse</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="5"/>
+      <c r="F30" s="10">
+        <f>F27/F29</f>
+        <v>5000</v>
+      </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="str">
-        <f>'Program targeting'!$C$7</f>
-        <v>Confirmatory test - nurse</v>
+        <f>'Program targeting'!$C$10</f>
+        <v>Adherence counselling</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="7"/>
+      <c r="F31" s="9">
+        <v>1000000</v>
+      </c>
       <c r="G31" s="5"/>
       <c r="H31" s="2" t="s">
         <v>11</v>
@@ -1364,74 +1341,74 @@
       <c r="I31" s="5"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F32" s="10">
-        <f>F27/F29</f>
-        <v>15000</v>
-      </c>
+      <c r="B32" s="4" t="str">
+        <f>'Program targeting'!$C$10</f>
+        <v>Adherence counselling</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="5"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="str">
-        <f>'Program targeting'!$C$8</f>
-        <v>Treatment initiation counselling</v>
+        <f>'Program targeting'!$C$10</f>
+        <v>Adherence counselling</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="9">
-        <v>2500000</v>
-      </c>
-      <c r="G33" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="5">
+        <f>80</f>
+        <v>80</v>
+      </c>
+      <c r="G33" s="7"/>
       <c r="H33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="5"/>
+      <c r="I33" s="7"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="4" t="str">
-        <f>'Program targeting'!$C$8</f>
-        <v>Treatment initiation counselling</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" s="5"/>
+      <c r="F34" s="10">
+        <f>F31/F33</f>
+        <v>12500</v>
+      </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="str">
-        <f>'Program targeting'!$C$8</f>
-        <v>Treatment initiation counselling</v>
+        <f>'Program targeting'!$C$11</f>
+        <v>Online adherence course</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="5">
-        <f>250</f>
-        <v>250</v>
-      </c>
-      <c r="G35" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="9">
+        <v>500000</v>
+      </c>
+      <c r="G35" s="5"/>
       <c r="H35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I35" s="7"/>
+      <c r="I35" s="5"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="str">
-        <f>'Program targeting'!$C$8</f>
-        <v>Treatment initiation counselling</v>
+        <f>'Program targeting'!$C$11</f>
+        <v>Online adherence course</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -1444,312 +1421,27 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="str">
-        <f>'Program targeting'!$C$8</f>
-        <v>Treatment initiation counselling</v>
+        <f>'Program targeting'!$C$11</f>
+        <v>Online adherence course</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="5">
+        <f>20</f>
+        <v>20</v>
+      </c>
+      <c r="G37" s="7"/>
       <c r="H37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I37" s="5"/>
+      <c r="I37" s="7"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F38" s="10">
-        <f>F33/F35</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="4" t="str">
-        <f>'Program targeting'!$C$9</f>
-        <v>Treatment initiation course</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="9">
-        <v>1500000</v>
-      </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="4" t="str">
-        <f>'Program targeting'!$C$9</f>
-        <v>Treatment initiation course</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="4" t="str">
-        <f>'Program targeting'!$C$9</f>
-        <v>Treatment initiation course</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="5">
-        <f>300</f>
-        <v>300</v>
-      </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="4" t="str">
-        <f>'Program targeting'!$C$9</f>
-        <v>Treatment initiation course</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="4" t="str">
-        <f>'Program targeting'!$C$9</f>
-        <v>Treatment initiation course</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F44" s="10">
-        <f>F39/F41</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="4" t="str">
-        <f>'Program targeting'!$C$10</f>
-        <v>Adherence counselling</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I45" s="5"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="4" t="str">
-        <f>'Program targeting'!$C$10</f>
-        <v>Adherence counselling</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="4" t="str">
-        <f>'Program targeting'!$C$10</f>
-        <v>Adherence counselling</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="5">
-        <f>80</f>
-        <v>80</v>
-      </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" s="7"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="4" t="str">
-        <f>'Program targeting'!$C$10</f>
-        <v>Adherence counselling</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I48" s="5"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="4" t="str">
-        <f>'Program targeting'!$C$10</f>
-        <v>Adherence counselling</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" s="5"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F50" s="10">
-        <f>F45/F47</f>
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="4" t="str">
-        <f>'Program targeting'!$C$11</f>
-        <v>Online adherence course</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="9">
-        <v>500000</v>
-      </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I51" s="5"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="4" t="str">
-        <f>'Program targeting'!$C$11</f>
-        <v>Online adherence course</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" s="5"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="4" t="str">
-        <f>'Program targeting'!$C$11</f>
-        <v>Online adherence course</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="5">
-        <f>20</f>
-        <v>20</v>
-      </c>
-      <c r="G53" s="7"/>
-      <c r="H53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I53" s="7"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="4" t="str">
-        <f>'Program targeting'!$C$11</f>
-        <v>Online adherence course</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I54" s="5"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="4" t="str">
-        <f>'Program targeting'!$C$11</f>
-        <v>Online adherence course</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I55" s="5"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F56" s="10">
-        <f>F51/F53</f>
+        <f>F35/F37</f>
         <v>25000</v>
       </c>
     </row>
@@ -1760,69 +1452,75 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="I8:N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="2.6640625" customWidth="1"/>
+    <col min="3" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="F1" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="90" x14ac:dyDescent="0.2">
+      <c r="H1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="90" x14ac:dyDescent="0.2">
       <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="6" t="str">
+        <v>14</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="6" t="str">
         <f>'Program targeting'!$C$3</f>
         <v>Screening at pharmacies</v>
       </c>
-      <c r="G2" s="6" t="str">
+      <c r="I2" s="6" t="str">
         <f>'Program targeting'!$C$4</f>
         <v>Screening at PHC</v>
       </c>
-      <c r="H2" s="6" t="str">
+      <c r="J2" s="6" t="str">
         <f>'Program targeting'!$C$5</f>
         <v>Screening via outreach</v>
       </c>
-      <c r="I2" s="6" t="str">
+      <c r="K2" s="6" t="str">
         <f>'Program targeting'!$C$6</f>
         <v>Confirmatory test - doctor</v>
       </c>
-      <c r="J2" s="6" t="str">
+      <c r="L2" s="6" t="str">
         <f>'Program targeting'!$C$7</f>
         <v>Confirmatory test - nurse</v>
       </c>
-      <c r="K2" s="6" t="str">
+      <c r="M2" s="6" t="str">
         <f>'Program targeting'!$C$8</f>
         <v>Treatment initiation counselling</v>
       </c>
-      <c r="L2" s="6" t="str">
+      <c r="N2" s="6" t="str">
         <f>'Program targeting'!$C$9</f>
         <v>Treatment initiation course</v>
       </c>
-      <c r="M2" s="6" t="str">
+      <c r="O2" s="6" t="str">
         <f>'Program targeting'!$C$10</f>
         <v>Adherence counselling</v>
       </c>
-      <c r="N2" s="6" t="str">
+      <c r="P2" s="6" t="str">
         <f>'Program targeting'!$C$11</f>
         <v>Online adherence course</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1830,26 +1528,28 @@
       <c r="D3" s="5">
         <v>0</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="11">
-        <v>1</v>
-      </c>
-      <c r="G3" s="11">
-        <v>1</v>
-      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="11">
         <v>1</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="I3" s="11">
+        <v>1</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1</v>
+      </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -1857,24 +1557,26 @@
       <c r="D4" s="5">
         <v>0</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="11">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="11">
+        <v>1</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1</v>
+      </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1882,24 +1584,26 @@
       <c r="D5" s="5">
         <v>0</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="11">
-        <v>1</v>
-      </c>
-      <c r="L5" s="11">
-        <v>1</v>
-      </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="11">
+        <v>1</v>
+      </c>
+      <c r="N5" s="11">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -1907,26 +1611,36 @@
       <c r="D6" s="11">
         <v>0.4</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="11">
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="11">
         <v>0.3</v>
       </c>
-      <c r="L6" s="11">
+      <c r="N6" s="11">
         <v>0.35</v>
       </c>
-      <c r="M6" s="11">
+      <c r="O6" s="11">
         <v>0.1</v>
       </c>
-      <c r="N6" s="11">
+      <c r="P6" s="11">
         <v>0.2</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F6" xr:uid="{BCAF9246-9C72-C844-A17D-8972A0DF1E23}">
+      <formula1>"Synergistic,best"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{8A698922-159B-C148-B94A-20ADE62CA468}">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tests/databooks/progbook_usdt.xlsx
+++ b/tests/databooks/progbook_usdt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{51CC1485-B4CB-EC4D-B123-EA953B7D003D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DB316C7E-4F9D-444C-9805-117873A117CD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
@@ -39,18 +39,6 @@
     <t>Adults</t>
   </si>
   <si>
-    <t>undx</t>
-  </si>
-  <si>
-    <t>scr</t>
-  </si>
-  <si>
-    <t>dx</t>
-  </si>
-  <si>
-    <t>tx</t>
-  </si>
-  <si>
     <t>Assumption</t>
   </si>
   <si>
@@ -115,6 +103,18 @@
   </si>
   <si>
     <t>Impact interaction</t>
+  </si>
+  <si>
+    <t>Undiagnosed</t>
+  </si>
+  <si>
+    <t>Screened</t>
+  </si>
+  <si>
+    <t>Diagnosed</t>
+  </si>
+  <si>
+    <t>Treated</t>
   </si>
 </sst>
 </file>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -600,16 +600,16 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -617,10 +617,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="5">
@@ -639,10 +639,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="5">
@@ -661,10 +661,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="5">
@@ -683,10 +683,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="5">
@@ -705,10 +705,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="5">
@@ -727,10 +727,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="5">
@@ -749,10 +749,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="5">
@@ -771,10 +771,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="5">
@@ -793,10 +793,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="5">
@@ -885,7 +885,7 @@
         <v>2018</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -894,7 +894,7 @@
         <v>Screening at pharmacies</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -903,7 +903,7 @@
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I3" s="7"/>
     </row>
@@ -913,14 +913,14 @@
         <v>Screening at pharmacies</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I4" s="5"/>
     </row>
@@ -930,7 +930,7 @@
         <v>Screening at pharmacies</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -940,7 +940,7 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I5" s="5"/>
     </row>
@@ -956,7 +956,7 @@
         <v>Screening at PHC</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -965,7 +965,7 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I7" s="5"/>
     </row>
@@ -975,14 +975,14 @@
         <v>Screening at PHC</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -992,7 +992,7 @@
         <v>Screening at PHC</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -1018,7 +1018,7 @@
         <v>Screening via outreach</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -1037,14 +1037,14 @@
         <v>Screening via outreach</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -1054,7 +1054,7 @@
         <v>Screening via outreach</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7"/>
     </row>
@@ -1080,7 +1080,7 @@
         <v>Confirmatory test - doctor</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -1099,14 +1099,14 @@
         <v>Confirmatory test - doctor</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -1116,7 +1116,7 @@
         <v>Confirmatory test - doctor</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I17" s="7"/>
     </row>
@@ -1142,7 +1142,7 @@
         <v>Confirmatory test - nurse</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I19" s="5"/>
     </row>
@@ -1161,14 +1161,14 @@
         <v>Confirmatory test - nurse</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I20" s="5"/>
     </row>
@@ -1178,7 +1178,7 @@
         <v>Confirmatory test - nurse</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I21" s="7"/>
     </row>
@@ -1203,7 +1203,7 @@
         <v>Treatment initiation counselling</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I23" s="5"/>
     </row>
@@ -1222,14 +1222,14 @@
         <v>Treatment initiation counselling</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I24" s="5"/>
     </row>
@@ -1239,7 +1239,7 @@
         <v>Treatment initiation counselling</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I25" s="7"/>
     </row>
@@ -1265,7 +1265,7 @@
         <v>Treatment initiation course</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I27" s="5"/>
     </row>
@@ -1284,14 +1284,14 @@
         <v>Treatment initiation course</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I28" s="5"/>
     </row>
@@ -1301,7 +1301,7 @@
         <v>Treatment initiation course</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I29" s="7"/>
     </row>
@@ -1327,7 +1327,7 @@
         <v>Adherence counselling</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I31" s="5"/>
     </row>
@@ -1346,14 +1346,14 @@
         <v>Adherence counselling</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I32" s="5"/>
     </row>
@@ -1363,7 +1363,7 @@
         <v>Adherence counselling</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I33" s="7"/>
     </row>
@@ -1389,7 +1389,7 @@
         <v>Online adherence course</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I35" s="5"/>
     </row>
@@ -1408,14 +1408,14 @@
         <v>Online adherence course</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I36" s="5"/>
     </row>
@@ -1425,7 +1425,7 @@
         <v>Online adherence course</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I37" s="7"/>
     </row>
@@ -1454,7 +1454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6:F6"/>
     </sheetView>
   </sheetViews>
@@ -1468,18 +1468,18 @@
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="H1" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="90" x14ac:dyDescent="0.2">
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H2" s="6" t="str">
         <f>'Program targeting'!$C$3</f>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>

--- a/tests/databooks/progbook_usdt.xlsx
+++ b/tests/databooks/progbook_usdt.xlsx
@@ -1,28 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DB316C7E-4F9D-444C-9805-117873A117CD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41E0F53-6DFC-44CE-BF69-4896D1D94D23}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
     <sheet name="Spending data" sheetId="2" r:id="rId2"/>
     <sheet name="Program effects" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{6FFE5248-FB83-4648-9F3F-B4AC8E858CF4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>In this column, enter the baseline value for "Vaccination rate" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{027799DE-D6D4-4B36-BE05-A79996B6C245}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>In this column, enter the baseline value for "Vaccination rate" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{E46555CD-E97B-4A0C-88B1-9344E7BD6EC1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>In this column, enter the baseline value for "Vaccination rate" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{1473BDF1-B748-4A57-8D55-5D4DA37D8317}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>In this column, enter the baseline value for "Vaccination rate" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="31">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -30,12 +92,6 @@
     <t>Targeted to (compartments)</t>
   </si>
   <si>
-    <t>Short name</t>
-  </si>
-  <si>
-    <t>Long name</t>
-  </si>
-  <si>
     <t>Adults</t>
   </si>
   <si>
@@ -51,12 +107,6 @@
     <t>Capacity constraints</t>
   </si>
   <si>
-    <t>Value for a person covered by this program alone:</t>
-  </si>
-  <si>
-    <t>Value if none of the programs listed here are targeting this parameter</t>
-  </si>
-  <si>
     <t>screen</t>
   </si>
   <si>
@@ -115,6 +165,18 @@
   </si>
   <si>
     <t>Treated</t>
+  </si>
+  <si>
+    <t>Display name</t>
+  </si>
+  <si>
+    <t>Abbreviation</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>Baseline value</t>
   </si>
 </sst>
 </file>
@@ -122,10 +184,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ _k_r_._-;\-* #,##0\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _k_r_._-;\-* #,##0\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +209,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -189,9 +257,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -215,12 +283,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -563,22 +634,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" customWidth="1"/>
-    <col min="7" max="7" width="1.83203125" customWidth="1"/>
-    <col min="8" max="9" width="16.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="1.85546875" customWidth="1"/>
+    <col min="8" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="F1" s="2" t="s">
         <v>0</v>
@@ -587,40 +658,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="5">
@@ -634,15 +705,15 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="5">
@@ -656,15 +727,15 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="5">
@@ -678,15 +749,15 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="5">
@@ -700,15 +771,15 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="5">
@@ -722,15 +793,15 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="5">
@@ -744,15 +815,15 @@
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="5">
@@ -766,15 +837,15 @@
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="5">
@@ -788,15 +859,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="5">
@@ -810,43 +881,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E24" s="3"/>
     </row>
   </sheetData>
@@ -856,592 +927,736 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D2" s="6">
-        <v>2015</v>
-      </c>
-      <c r="E2" s="6">
-        <v>2016</v>
-      </c>
-      <c r="F2" s="6">
-        <v>2017</v>
-      </c>
-      <c r="G2" s="6">
-        <v>2018</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="str">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="str">
         <f>'Program targeting'!$C$3</f>
         <v>Screening at pharmacies</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6">
+        <v>2015</v>
+      </c>
+      <c r="E1" s="6">
+        <v>2016</v>
+      </c>
+      <c r="F1" s="6">
+        <v>2017</v>
+      </c>
+      <c r="G1" s="6">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="9">
+        <v>2000000</v>
+      </c>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="9">
-        <v>2000000</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="str">
-        <f>'Program targeting'!$C$3</f>
-        <v>Screening at pharmacies</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
+      <c r="B3" s="5"/>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="str">
-        <f>'Program targeting'!$C$3</f>
-        <v>Screening at pharmacies</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
+      <c r="F4" s="5">
         <f>20/0.02</f>
         <v>1000</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F6" s="10">
-        <f>F3/F5</f>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="10">
+        <f>F2/F4</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="str">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="str">
         <f>'Program targeting'!$C$4</f>
         <v>Screening at PHC</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="9">
-        <v>6300000</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="str">
-        <f>'Program targeting'!$C$4</f>
-        <v>Screening at PHC</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
+      <c r="B7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2015</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2016</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2017</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="9">
+        <v>6300000</v>
+      </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="str">
-        <f>'Program targeting'!$C$4</f>
-        <v>Screening at PHC</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>24</v>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5">
         <f>21/0.07</f>
         <v>299.99999999999994</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F10" s="10">
-        <f>F7/F9</f>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="10">
+        <f>F8/F10</f>
         <v>21000.000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="str">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="str">
         <f>'Program targeting'!$C$5</f>
         <v>Screening via outreach</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="B13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2015</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2016</v>
+      </c>
+      <c r="F13" s="6">
+        <v>2017</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="9">
+        <v>300000</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="9">
-        <v>300000</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Screening via outreach</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Screening via outreach</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="5">
+      <c r="B15" s="5"/>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="5">
         <f>30/0.2</f>
         <v>150</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F14" s="10">
-        <f>F11/F13</f>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="10">
+        <f>F14/F16</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="str">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="str">
         <f>'Program targeting'!$C$6</f>
         <v>Confirmatory test - doctor</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="B19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2015</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2016</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2017</v>
+      </c>
+      <c r="G19" s="6">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="9">
+        <v>250000</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="9">
-        <v>250000</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Confirmatory test - doctor</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Confirmatory test - doctor</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="5">
+      <c r="B21" s="5"/>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="5">
         <f>25</f>
         <v>25</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F18" s="10">
-        <f>F15/F17</f>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="10">
+        <f>F20/F22</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="str">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="str">
         <f>'Program targeting'!$C$7</f>
         <v>Confirmatory test - nurse</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="B25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="6">
+        <v>2015</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2016</v>
+      </c>
+      <c r="F25" s="6">
+        <v>2017</v>
+      </c>
+      <c r="G25" s="6">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="9">
+        <v>150000</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="9">
-        <v>150000</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="str">
-        <f>'Program targeting'!$C$7</f>
-        <v>Confirmatory test - nurse</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="4" t="str">
-        <f>'Program targeting'!$C$7</f>
-        <v>Confirmatory test - nurse</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="5">
+      <c r="B27" s="5"/>
+      <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="5">
         <v>10</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F22" s="10">
-        <f>F19/F21</f>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="10">
+        <f>F26/F28</f>
         <v>15000</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="4" t="str">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="str">
         <f>'Program targeting'!$C$8</f>
         <v>Treatment initiation counselling</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="B31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="6">
+        <v>2015</v>
+      </c>
+      <c r="E31" s="6">
+        <v>2016</v>
+      </c>
+      <c r="F31" s="6">
+        <v>2017</v>
+      </c>
+      <c r="G31" s="6">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="9">
+        <v>2500000</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="9">
-        <v>2500000</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="4" t="str">
-        <f>'Program targeting'!$C$8</f>
-        <v>Treatment initiation counselling</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="4" t="str">
-        <f>'Program targeting'!$C$8</f>
-        <v>Treatment initiation counselling</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="5">
+      <c r="B33" s="5"/>
+      <c r="C33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="5">
         <f>250</f>
         <v>250</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F26" s="10">
-        <f>F23/F25</f>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="10">
+        <f>F32/F34</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="4" t="str">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="str">
         <f>'Program targeting'!$C$9</f>
         <v>Treatment initiation course</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="B37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="6">
+        <v>2015</v>
+      </c>
+      <c r="E37" s="6">
+        <v>2016</v>
+      </c>
+      <c r="F37" s="6">
+        <v>2017</v>
+      </c>
+      <c r="G37" s="6">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="9">
+        <v>1500000</v>
+      </c>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="9">
-        <v>1500000</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="4" t="str">
-        <f>'Program targeting'!$C$9</f>
-        <v>Treatment initiation course</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="4" t="str">
-        <f>'Program targeting'!$C$9</f>
-        <v>Treatment initiation course</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="5">
+      <c r="B39" s="5"/>
+      <c r="C39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="5">
         <f>300</f>
         <v>300</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F30" s="10">
-        <f>F27/F29</f>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="10">
+        <f>F38/F40</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="4" t="str">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="str">
         <f>'Program targeting'!$C$10</f>
         <v>Adherence counselling</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="B43" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="6">
+        <v>2015</v>
+      </c>
+      <c r="E43" s="6">
+        <v>2016</v>
+      </c>
+      <c r="F43" s="6">
+        <v>2017</v>
+      </c>
+      <c r="G43" s="6">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="4" t="str">
-        <f>'Program targeting'!$C$10</f>
-        <v>Adherence counselling</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="4" t="str">
-        <f>'Program targeting'!$C$10</f>
-        <v>Adherence counselling</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="5">
+      <c r="B45" s="5"/>
+      <c r="C45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="5">
         <f>80</f>
         <v>80</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F34" s="10">
-        <f>F31/F33</f>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="10">
+        <f>F44/F46</f>
         <v>12500</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="4" t="str">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="str">
         <f>'Program targeting'!$C$11</f>
         <v>Online adherence course</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="B49" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="6">
+        <v>2015</v>
+      </c>
+      <c r="E49" s="6">
+        <v>2016</v>
+      </c>
+      <c r="F49" s="6">
+        <v>2017</v>
+      </c>
+      <c r="G49" s="6">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="9">
+        <v>500000</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="9">
-        <v>500000</v>
-      </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="4" t="str">
-        <f>'Program targeting'!$C$11</f>
-        <v>Online adherence course</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="4" t="str">
-        <f>'Program targeting'!$C$11</f>
-        <v>Online adherence course</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="5">
+      <c r="B51" s="5"/>
+      <c r="C51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="5">
         <f>20</f>
         <v>20</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F38" s="10">
-        <f>F35/F37</f>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="10">
+        <f>F50/F52</f>
         <v>25000</v>
       </c>
     </row>
@@ -1451,196 +1666,340 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="1" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="H1" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="90" x14ac:dyDescent="0.2">
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="6" t="str">
+    <row r="1" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="6" t="str">
         <f>'Program targeting'!$C$3</f>
         <v>Screening at pharmacies</v>
       </c>
-      <c r="I2" s="6" t="str">
+      <c r="G1" s="6" t="str">
         <f>'Program targeting'!$C$4</f>
         <v>Screening at PHC</v>
       </c>
-      <c r="J2" s="6" t="str">
+      <c r="H1" s="6" t="str">
         <f>'Program targeting'!$C$5</f>
         <v>Screening via outreach</v>
       </c>
-      <c r="K2" s="6" t="str">
+      <c r="I1" s="6" t="str">
         <f>'Program targeting'!$C$6</f>
         <v>Confirmatory test - doctor</v>
       </c>
-      <c r="L2" s="6" t="str">
+      <c r="J1" s="6" t="str">
         <f>'Program targeting'!$C$7</f>
         <v>Confirmatory test - nurse</v>
       </c>
-      <c r="M2" s="6" t="str">
+      <c r="K1" s="6" t="str">
         <f>'Program targeting'!$C$8</f>
         <v>Treatment initiation counselling</v>
       </c>
-      <c r="N2" s="6" t="str">
+      <c r="L1" s="6" t="str">
         <f>'Program targeting'!$C$9</f>
         <v>Treatment initiation course</v>
       </c>
-      <c r="O2" s="6" t="str">
+      <c r="M1" s="6" t="str">
         <f>'Program targeting'!$C$10</f>
         <v>Adherence counselling</v>
       </c>
-      <c r="P2" s="6" t="str">
+      <c r="N1" s="6" t="str">
         <f>'Program targeting'!$C$11</f>
         <v>Online adherence course</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="5">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5">
         <v>0</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="11">
-        <v>1</v>
-      </c>
-      <c r="I3" s="11">
-        <v>1</v>
-      </c>
-      <c r="J3" s="11">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="11">
+        <v>1</v>
+      </c>
+      <c r="G2" s="11">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="6" t="str">
+        <f>'Program targeting'!$C$3</f>
+        <v>Screening at pharmacies</v>
+      </c>
+      <c r="G4" s="6" t="str">
+        <f>'Program targeting'!$C$4</f>
+        <v>Screening at PHC</v>
+      </c>
+      <c r="H4" s="6" t="str">
+        <f>'Program targeting'!$C$5</f>
+        <v>Screening via outreach</v>
+      </c>
+      <c r="I4" s="6" t="str">
+        <f>'Program targeting'!$C$6</f>
+        <v>Confirmatory test - doctor</v>
+      </c>
+      <c r="J4" s="6" t="str">
+        <f>'Program targeting'!$C$7</f>
+        <v>Confirmatory test - nurse</v>
+      </c>
+      <c r="K4" s="6" t="str">
+        <f>'Program targeting'!$C$8</f>
+        <v>Treatment initiation counselling</v>
+      </c>
+      <c r="L4" s="6" t="str">
+        <f>'Program targeting'!$C$9</f>
+        <v>Treatment initiation course</v>
+      </c>
+      <c r="M4" s="6" t="str">
+        <f>'Program targeting'!$C$10</f>
+        <v>Adherence counselling</v>
+      </c>
+      <c r="N4" s="6" t="str">
+        <f>'Program targeting'!$C$11</f>
+        <v>Online adherence course</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
         <v>0</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="11">
-        <v>1</v>
-      </c>
-      <c r="L4" s="11">
-        <v>1</v>
-      </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="I5" s="11">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11">
+        <v>1</v>
+      </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="11">
-        <v>1</v>
-      </c>
-      <c r="N5" s="11">
-        <v>1</v>
-      </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="6" t="str">
+        <f>'Program targeting'!$C$3</f>
+        <v>Screening at pharmacies</v>
+      </c>
+      <c r="G7" s="6" t="str">
+        <f>'Program targeting'!$C$4</f>
+        <v>Screening at PHC</v>
+      </c>
+      <c r="H7" s="6" t="str">
+        <f>'Program targeting'!$C$5</f>
+        <v>Screening via outreach</v>
+      </c>
+      <c r="I7" s="6" t="str">
+        <f>'Program targeting'!$C$6</f>
+        <v>Confirmatory test - doctor</v>
+      </c>
+      <c r="J7" s="6" t="str">
+        <f>'Program targeting'!$C$7</f>
+        <v>Confirmatory test - nurse</v>
+      </c>
+      <c r="K7" s="6" t="str">
+        <f>'Program targeting'!$C$8</f>
+        <v>Treatment initiation counselling</v>
+      </c>
+      <c r="L7" s="6" t="str">
+        <f>'Program targeting'!$C$9</f>
+        <v>Treatment initiation course</v>
+      </c>
+      <c r="M7" s="6" t="str">
+        <f>'Program targeting'!$C$10</f>
+        <v>Adherence counselling</v>
+      </c>
+      <c r="N7" s="6" t="str">
+        <f>'Program targeting'!$C$11</f>
+        <v>Online adherence course</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="11">
+        <v>1</v>
+      </c>
+      <c r="L8" s="11">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="6" t="str">
+        <f>'Program targeting'!$C$3</f>
+        <v>Screening at pharmacies</v>
+      </c>
+      <c r="G10" s="6" t="str">
+        <f>'Program targeting'!$C$4</f>
+        <v>Screening at PHC</v>
+      </c>
+      <c r="H10" s="6" t="str">
+        <f>'Program targeting'!$C$5</f>
+        <v>Screening via outreach</v>
+      </c>
+      <c r="I10" s="6" t="str">
+        <f>'Program targeting'!$C$6</f>
+        <v>Confirmatory test - doctor</v>
+      </c>
+      <c r="J10" s="6" t="str">
+        <f>'Program targeting'!$C$7</f>
+        <v>Confirmatory test - nurse</v>
+      </c>
+      <c r="K10" s="6" t="str">
+        <f>'Program targeting'!$C$8</f>
+        <v>Treatment initiation counselling</v>
+      </c>
+      <c r="L10" s="6" t="str">
+        <f>'Program targeting'!$C$9</f>
+        <v>Treatment initiation course</v>
+      </c>
+      <c r="M10" s="6" t="str">
+        <f>'Program targeting'!$C$10</f>
+        <v>Adherence counselling</v>
+      </c>
+      <c r="N10" s="6" t="str">
+        <f>'Program targeting'!$C$11</f>
+        <v>Online adherence course</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="11">
         <v>0.4</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="11">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="11">
         <v>0.3</v>
       </c>
-      <c r="N6" s="11">
+      <c r="L11" s="11">
         <v>0.35</v>
       </c>
-      <c r="O6" s="11">
+      <c r="M11" s="11">
         <v>0.1</v>
       </c>
-      <c r="P6" s="11">
+      <c r="N11" s="11">
         <v>0.2</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F6" xr:uid="{BCAF9246-9C72-C844-A17D-8972A0DF1E23}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D5 D8 D11" xr:uid="{BCAF9246-9C72-C844-A17D-8972A0DF1E23}">
       <formula1>"Synergistic,best"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{8A698922-159B-C148-B94A-20ADE62CA468}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C8 C11" xr:uid="{8A698922-159B-C148-B94A-20ADE62CA468}">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/databooks/progbook_usdt.xlsx
+++ b/tests/databooks/progbook_usdt.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\databooks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869E1C06-E740-4304-BF26-1AF87A645F2D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
     <sheet name="Spending data" sheetId="2" r:id="rId2"/>
     <sheet name="Program effects" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -34,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -78,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="36">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -184,12 +190,15 @@
   <si>
     <t>Loss-to-follow-up rate</t>
   </si>
+  <si>
+    <t>Y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,9 +283,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -298,24 +306,75 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF18C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
+  <dxfs count="172">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -325,8 +384,1071 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -373,7 +1495,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,9 +1527,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -439,6 +1579,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -614,755 +1772,525 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="1" max="2" width="36.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="5" max="8" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>10</v>
+      <c r="H11" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="0" priority="71" operator="equal">
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="167" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="12" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="0" priority="81" operator="equal">
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="153" priority="83" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="84" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="151" priority="93" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="94" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="143" priority="43" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="44" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="141" priority="53" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="54" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="0" priority="31" operator="equal">
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="139" priority="63" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="64" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="0" priority="41" operator="equal">
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="137" priority="73" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="74" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="0" priority="51" operator="equal">
+  <conditionalFormatting sqref="F10">
+    <cfRule type="cellIs" dxfId="135" priority="85" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="86" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="0" priority="61" operator="equal">
+  <conditionalFormatting sqref="F11">
+    <cfRule type="cellIs" dxfId="133" priority="95" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="96" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="0" priority="73" operator="equal">
+  <conditionalFormatting sqref="F3">
+    <cfRule type="cellIs" dxfId="131" priority="15" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="16" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="0" priority="83" operator="equal">
+  <conditionalFormatting sqref="F4">
+    <cfRule type="cellIs" dxfId="129" priority="25" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="26" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+  <conditionalFormatting sqref="F5">
+    <cfRule type="cellIs" dxfId="127" priority="35" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="36" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+  <conditionalFormatting sqref="F8">
+    <cfRule type="cellIs" dxfId="121" priority="65" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="66" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
+  <conditionalFormatting sqref="F9">
+    <cfRule type="cellIs" dxfId="119" priority="75" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="76" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="117" priority="87" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="88" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="0" priority="43" operator="equal">
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="115" priority="97" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="98" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="0" priority="53" operator="equal">
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="113" priority="17" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="18" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="0" priority="63" operator="equal">
+  <conditionalFormatting sqref="G4">
+    <cfRule type="cellIs" dxfId="111" priority="27" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="28" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="0" priority="75" operator="equal">
+  <conditionalFormatting sqref="G5">
+    <cfRule type="cellIs" dxfId="109" priority="37" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="38" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="0" priority="85" operator="equal">
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="107" priority="47" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="48" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="105" priority="57" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="58" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="95" priority="19" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="20" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
+  <conditionalFormatting sqref="H4">
+    <cfRule type="cellIs" dxfId="93" priority="29" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="30" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="0" priority="35" operator="equal">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="cellIs" dxfId="91" priority="39" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="40" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="0" priority="45" operator="equal">
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="89" priority="49" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="50" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="0" priority="55" operator="equal">
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="87" priority="59" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="60" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="0" priority="65" operator="equal">
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="85" priority="69" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="70" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="0" priority="77" operator="equal">
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="83" priority="79" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="80" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="0" priority="87" operator="equal">
+  <conditionalFormatting sqref="C4:C11">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+  <conditionalFormatting sqref="E3:E5">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
+  <conditionalFormatting sqref="F6:F7">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
+  <conditionalFormatting sqref="G8:G9">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="0" priority="37" operator="equal">
+  <conditionalFormatting sqref="H10:H11">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="0" priority="47" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="48" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="0" priority="57" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="58" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="0" priority="67" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="68" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="0" priority="79" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="80" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="0" priority="89" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="90" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="30" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="40" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="0" priority="49" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="50" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="0" priority="59" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="60" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="0" priority="69" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="70" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="45">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C11 E3:H11" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1371,12 +2299,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
@@ -1384,1066 +2312,1066 @@
     <col min="4" max="4" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5">
         <v>2015</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="5">
         <v>2016</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="5">
         <v>2017</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7">
         <v>2000000</v>
       </c>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7">
         <v>1000</v>
       </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7">
         <v>2000</v>
       </c>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="6" t="s">
+      <c r="H5" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
         <v>2015</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>2016</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>2017</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7">
         <v>6300000</v>
       </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="5" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="5" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8">
-        <v>299.9999999999999</v>
-      </c>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7">
+        <v>299.99999999999989</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="5" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7">
         <v>21000</v>
       </c>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="6" t="s">
+      <c r="H11" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
         <v>2015</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>2016</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>2017</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="5" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7">
         <v>300000</v>
       </c>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="3" t="s">
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="5" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="3" t="s">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="5" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7">
         <v>150</v>
       </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="3" t="s">
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="5" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7">
         <v>2000</v>
       </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="6" t="s">
+      <c r="H17" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5">
         <v>2015</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>2016</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>2017</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="5" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7">
         <v>250000</v>
       </c>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="3" t="s">
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="5" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="3" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="5" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7">
         <v>25</v>
       </c>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="3" t="s">
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="5" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7">
         <v>10000</v>
       </c>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="6" t="s">
+      <c r="H23" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5">
         <v>2015</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>2016</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>2017</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="5" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8">
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7">
         <v>150000</v>
       </c>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="3" t="s">
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="5" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="3" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="5" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8">
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7">
         <v>10</v>
       </c>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="3" t="s">
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="5" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8">
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7">
         <v>15000</v>
       </c>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="6" t="s">
+      <c r="H29" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5">
         <v>2015</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <v>2016</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="5">
         <v>2017</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="5" t="s">
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8">
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7">
         <v>2500000</v>
       </c>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="3" t="s">
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="5" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="3" t="s">
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="5" t="s">
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8">
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7">
         <v>250</v>
       </c>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="3" t="s">
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="5" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8">
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7">
         <v>10000</v>
       </c>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="6" t="s">
+      <c r="H35" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6">
+      <c r="D37" s="5"/>
+      <c r="E37" s="5">
         <v>2015</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <v>2016</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="5">
         <v>2017</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="5" t="s">
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8">
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7">
         <v>1500000</v>
       </c>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="3" t="s">
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="5" t="s">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="3" t="s">
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="5" t="s">
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8">
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7">
         <v>300</v>
       </c>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="3" t="s">
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="5" t="s">
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8">
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7">
         <v>5000</v>
       </c>
-      <c r="H41" s="8"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="6" t="s">
+      <c r="H41" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5">
         <v>2015</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="5">
         <v>2016</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="5">
         <v>2017</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="5" t="s">
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8">
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7">
         <v>1000000</v>
       </c>
-      <c r="H44" s="8"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="3" t="s">
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="5" t="s">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="3" t="s">
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="5" t="s">
+      <c r="B46" s="6"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8">
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7">
         <v>80</v>
       </c>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="3" t="s">
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="5" t="s">
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8">
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7">
         <v>12500</v>
       </c>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="6" t="s">
+      <c r="H47" s="7"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6">
+      <c r="D49" s="5"/>
+      <c r="E49" s="5">
         <v>2015</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="5">
         <v>2016</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="5">
         <v>2017</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="5" t="s">
+      <c r="B50" s="6"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8">
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7">
         <v>500000</v>
       </c>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="3" t="s">
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="5" t="s">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="3" t="s">
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="5" t="s">
+      <c r="B52" s="6"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8">
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7">
         <v>20</v>
       </c>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="3" t="s">
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="5" t="s">
+      <c r="B53" s="6"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8">
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7">
         <v>25000</v>
       </c>
-      <c r="H53" s="8"/>
+      <c r="H53" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="2" priority="13">
+    <cfRule type="expression" dxfId="81" priority="13">
       <formula>COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="14">
+    <cfRule type="expression" dxfId="80" priority="14">
       <formula>AND(COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="2" priority="15">
+    <cfRule type="expression" dxfId="79" priority="15">
       <formula>COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="16">
+    <cfRule type="expression" dxfId="78" priority="16">
       <formula>AND(COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="2" priority="17">
+    <cfRule type="expression" dxfId="77" priority="17">
       <formula>COUNTIF(E14:H14,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="18">
+    <cfRule type="expression" dxfId="76" priority="18">
       <formula>AND(COUNTIF(E14:H14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="2" priority="19">
+    <cfRule type="expression" dxfId="75" priority="19">
       <formula>COUNTIF(E15:H15,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="20">
+    <cfRule type="expression" dxfId="74" priority="20">
       <formula>AND(COUNTIF(E15:H15,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="2" priority="21">
+    <cfRule type="expression" dxfId="73" priority="21">
       <formula>COUNTIF(E16:H16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="22">
+    <cfRule type="expression" dxfId="72" priority="22">
       <formula>AND(COUNTIF(E16:H16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="2" priority="23">
+    <cfRule type="expression" dxfId="71" priority="23">
       <formula>COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="24">
+    <cfRule type="expression" dxfId="70" priority="24">
       <formula>AND(COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="69" priority="1">
       <formula>COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="68" priority="2">
       <formula>AND(COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="2" priority="25">
+    <cfRule type="expression" dxfId="67" priority="25">
       <formula>COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="26">
+    <cfRule type="expression" dxfId="66" priority="26">
       <formula>AND(COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="2" priority="27">
+    <cfRule type="expression" dxfId="65" priority="27">
       <formula>COUNTIF(E21:H21,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="28">
+    <cfRule type="expression" dxfId="64" priority="28">
       <formula>AND(COUNTIF(E21:H21,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="2" priority="29">
+    <cfRule type="expression" dxfId="63" priority="29">
       <formula>COUNTIF(E22:H22,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="30">
+    <cfRule type="expression" dxfId="62" priority="30">
       <formula>AND(COUNTIF(E22:H22,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="2" priority="31">
+    <cfRule type="expression" dxfId="61" priority="31">
       <formula>COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="32">
+    <cfRule type="expression" dxfId="60" priority="32">
       <formula>AND(COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="2" priority="33">
+    <cfRule type="expression" dxfId="59" priority="33">
       <formula>COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="34">
+    <cfRule type="expression" dxfId="58" priority="34">
       <formula>AND(COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="2" priority="35">
+    <cfRule type="expression" dxfId="57" priority="35">
       <formula>COUNTIF(E27:H27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="36">
+    <cfRule type="expression" dxfId="56" priority="36">
       <formula>AND(COUNTIF(E27:H27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="2" priority="37">
+    <cfRule type="expression" dxfId="55" priority="37">
       <formula>COUNTIF(E28:H28,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="38">
+    <cfRule type="expression" dxfId="54" priority="38">
       <formula>AND(COUNTIF(E28:H28,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="2" priority="39">
+    <cfRule type="expression" dxfId="53" priority="39">
       <formula>COUNTIF(E29:H29,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="40">
+    <cfRule type="expression" dxfId="52" priority="40">
       <formula>AND(COUNTIF(E29:H29,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="51" priority="3">
       <formula>COUNTIF(E3:H3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="50" priority="4">
       <formula>AND(COUNTIF(E3:H3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="2" priority="41">
+    <cfRule type="expression" dxfId="49" priority="41">
       <formula>COUNTIF(E32:H32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="42">
+    <cfRule type="expression" dxfId="48" priority="42">
       <formula>AND(COUNTIF(E32:H32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="2" priority="43">
+    <cfRule type="expression" dxfId="47" priority="43">
       <formula>COUNTIF(E33:H33,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="44">
+    <cfRule type="expression" dxfId="46" priority="44">
       <formula>AND(COUNTIF(E33:H33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="2" priority="45">
+    <cfRule type="expression" dxfId="45" priority="45">
       <formula>COUNTIF(E34:H34,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="46">
+    <cfRule type="expression" dxfId="44" priority="46">
       <formula>AND(COUNTIF(E34:H34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="2" priority="47">
+    <cfRule type="expression" dxfId="43" priority="47">
       <formula>COUNTIF(E35:H35,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="48">
+    <cfRule type="expression" dxfId="42" priority="48">
       <formula>AND(COUNTIF(E35:H35,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="2" priority="49">
+    <cfRule type="expression" dxfId="41" priority="49">
       <formula>COUNTIF(E38:H38,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="50">
+    <cfRule type="expression" dxfId="40" priority="50">
       <formula>AND(COUNTIF(E38:H38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="2" priority="51">
+    <cfRule type="expression" dxfId="39" priority="51">
       <formula>COUNTIF(E39:H39,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="52">
+    <cfRule type="expression" dxfId="38" priority="52">
       <formula>AND(COUNTIF(E39:H39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="37" priority="5">
       <formula>COUNTIF(E4:H4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="36" priority="6">
       <formula>AND(COUNTIF(E4:H4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="2" priority="53">
+    <cfRule type="expression" dxfId="35" priority="53">
       <formula>COUNTIF(E40:H40,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="54">
+    <cfRule type="expression" dxfId="34" priority="54">
       <formula>AND(COUNTIF(E40:H40,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="2" priority="55">
+    <cfRule type="expression" dxfId="33" priority="55">
       <formula>COUNTIF(E41:H41,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="56">
+    <cfRule type="expression" dxfId="32" priority="56">
       <formula>AND(COUNTIF(E41:H41,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="2" priority="57">
+    <cfRule type="expression" dxfId="31" priority="57">
       <formula>COUNTIF(E44:H44,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="58">
+    <cfRule type="expression" dxfId="30" priority="58">
       <formula>AND(COUNTIF(E44:H44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="2" priority="59">
+    <cfRule type="expression" dxfId="29" priority="59">
       <formula>COUNTIF(E45:H45,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="60">
+    <cfRule type="expression" dxfId="28" priority="60">
       <formula>AND(COUNTIF(E45:H45,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="2" priority="61">
+    <cfRule type="expression" dxfId="27" priority="61">
       <formula>COUNTIF(E46:H46,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="62">
+    <cfRule type="expression" dxfId="26" priority="62">
       <formula>AND(COUNTIF(E46:H46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="2" priority="63">
+    <cfRule type="expression" dxfId="25" priority="63">
       <formula>COUNTIF(E47:H47,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="64">
+    <cfRule type="expression" dxfId="24" priority="64">
       <formula>AND(COUNTIF(E47:H47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="22" priority="8">
       <formula>AND(COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="2" priority="65">
+    <cfRule type="expression" dxfId="21" priority="65">
       <formula>COUNTIF(E50:H50,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="66">
+    <cfRule type="expression" dxfId="20" priority="66">
       <formula>AND(COUNTIF(E50:H50,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="2" priority="67">
+    <cfRule type="expression" dxfId="19" priority="67">
       <formula>COUNTIF(E51:H51,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="68">
+    <cfRule type="expression" dxfId="18" priority="68">
       <formula>AND(COUNTIF(E51:H51,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="2" priority="69">
+    <cfRule type="expression" dxfId="17" priority="69">
       <formula>COUNTIF(E52:H52,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="70">
+    <cfRule type="expression" dxfId="16" priority="70">
       <formula>AND(COUNTIF(E52:H52,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="2" priority="71">
+    <cfRule type="expression" dxfId="15" priority="71">
       <formula>COUNTIF(E53:H53,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="72">
+    <cfRule type="expression" dxfId="14" priority="72">
       <formula>AND(COUNTIF(E53:H53,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>COUNTIF(E8:H8,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="10">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>AND(COUNTIF(E8:H8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>COUNTIF(E9:H9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="12">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>AND(COUNTIF(E9:H9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2452,18 +3380,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="2" max="5" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" customWidth="1"/>
     <col min="9" max="9" width="25.85546875" customWidth="1"/>
@@ -2475,364 +3400,346 @@
     <col min="15" max="15" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="3" t="str">
+      <c r="G1" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
         <v>Screening at pharmacies</v>
       </c>
-      <c r="H1" s="3" t="str">
+      <c r="H1" s="2" t="str">
         <f>'Program targeting'!$B$4</f>
         <v>Screening at PHC</v>
       </c>
-      <c r="I1" s="3" t="str">
+      <c r="I1" s="2" t="str">
         <f>'Program targeting'!$B$5</f>
         <v>Screening via outreach</v>
       </c>
-      <c r="J1" s="3" t="str">
+      <c r="J1" s="2" t="str">
         <f>'Program targeting'!$B$6</f>
         <v>Confirmatory test - doctor</v>
       </c>
-      <c r="K1" s="3" t="str">
+      <c r="K1" s="2" t="str">
         <f>'Program targeting'!$B$7</f>
         <v>Confirmatory test - nurse</v>
       </c>
-      <c r="L1" s="3" t="str">
+      <c r="L1" s="2" t="str">
         <f>'Program targeting'!$B$8</f>
         <v>Treatment initiation counselling</v>
       </c>
-      <c r="M1" s="3" t="str">
+      <c r="M1" s="2" t="str">
         <f>'Program targeting'!$B$9</f>
         <v>Treatment initiation course</v>
       </c>
-      <c r="N1" s="3" t="str">
+      <c r="N1" s="2" t="str">
         <f>'Program targeting'!$B$10</f>
         <v>Adherence counselling</v>
       </c>
-      <c r="O1" s="3" t="str">
+      <c r="O1" s="2" t="str">
         <f>'Program targeting'!$B$11</f>
         <v>Online adherence course</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="G2" s="8">
+      <c r="E2" s="6"/>
+      <c r="G2" s="7">
         <v>1</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>1</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>1</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="2" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="3" t="str">
+      <c r="G4" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
         <v>Screening at pharmacies</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="2" t="str">
         <f>'Program targeting'!$B$4</f>
         <v>Screening at PHC</v>
       </c>
-      <c r="I4" s="3" t="str">
+      <c r="I4" s="2" t="str">
         <f>'Program targeting'!$B$5</f>
         <v>Screening via outreach</v>
       </c>
-      <c r="J4" s="3" t="str">
+      <c r="J4" s="2" t="str">
         <f>'Program targeting'!$B$6</f>
         <v>Confirmatory test - doctor</v>
       </c>
-      <c r="K4" s="3" t="str">
+      <c r="K4" s="2" t="str">
         <f>'Program targeting'!$B$7</f>
         <v>Confirmatory test - nurse</v>
       </c>
-      <c r="L4" s="3" t="str">
+      <c r="L4" s="2" t="str">
         <f>'Program targeting'!$B$8</f>
         <v>Treatment initiation counselling</v>
       </c>
-      <c r="M4" s="3" t="str">
+      <c r="M4" s="2" t="str">
         <f>'Program targeting'!$B$9</f>
         <v>Treatment initiation course</v>
       </c>
-      <c r="N4" s="3" t="str">
+      <c r="N4" s="2" t="str">
         <f>'Program targeting'!$B$10</f>
         <v>Adherence counselling</v>
       </c>
-      <c r="O4" s="3" t="str">
+      <c r="O4" s="2" t="str">
         <f>'Program targeting'!$B$11</f>
         <v>Online adherence course</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8">
+      <c r="E5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7">
         <v>1</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>1</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="2" t="s">
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="3" t="str">
+      <c r="G7" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
         <v>Screening at pharmacies</v>
       </c>
-      <c r="H7" s="3" t="str">
+      <c r="H7" s="2" t="str">
         <f>'Program targeting'!$B$4</f>
         <v>Screening at PHC</v>
       </c>
-      <c r="I7" s="3" t="str">
+      <c r="I7" s="2" t="str">
         <f>'Program targeting'!$B$5</f>
         <v>Screening via outreach</v>
       </c>
-      <c r="J7" s="3" t="str">
+      <c r="J7" s="2" t="str">
         <f>'Program targeting'!$B$6</f>
         <v>Confirmatory test - doctor</v>
       </c>
-      <c r="K7" s="3" t="str">
+      <c r="K7" s="2" t="str">
         <f>'Program targeting'!$B$7</f>
         <v>Confirmatory test - nurse</v>
       </c>
-      <c r="L7" s="3" t="str">
+      <c r="L7" s="2" t="str">
         <f>'Program targeting'!$B$8</f>
         <v>Treatment initiation counselling</v>
       </c>
-      <c r="M7" s="3" t="str">
+      <c r="M7" s="2" t="str">
         <f>'Program targeting'!$B$9</f>
         <v>Treatment initiation course</v>
       </c>
-      <c r="N7" s="3" t="str">
+      <c r="N7" s="2" t="str">
         <f>'Program targeting'!$B$10</f>
         <v>Adherence counselling</v>
       </c>
-      <c r="O7" s="3" t="str">
+      <c r="O7" s="2" t="str">
         <f>'Program targeting'!$B$11</f>
         <v>Online adherence course</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>0</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8">
+      <c r="E8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="7">
         <v>1</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <v>1</v>
       </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="2" t="s">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="3" t="str">
+      <c r="G10" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
         <v>Screening at pharmacies</v>
       </c>
-      <c r="H10" s="3" t="str">
+      <c r="H10" s="2" t="str">
         <f>'Program targeting'!$B$4</f>
         <v>Screening at PHC</v>
       </c>
-      <c r="I10" s="3" t="str">
+      <c r="I10" s="2" t="str">
         <f>'Program targeting'!$B$5</f>
         <v>Screening via outreach</v>
       </c>
-      <c r="J10" s="3" t="str">
+      <c r="J10" s="2" t="str">
         <f>'Program targeting'!$B$6</f>
         <v>Confirmatory test - doctor</v>
       </c>
-      <c r="K10" s="3" t="str">
+      <c r="K10" s="2" t="str">
         <f>'Program targeting'!$B$7</f>
         <v>Confirmatory test - nurse</v>
       </c>
-      <c r="L10" s="3" t="str">
+      <c r="L10" s="2" t="str">
         <f>'Program targeting'!$B$8</f>
         <v>Treatment initiation counselling</v>
       </c>
-      <c r="M10" s="3" t="str">
+      <c r="M10" s="2" t="str">
         <f>'Program targeting'!$B$9</f>
         <v>Treatment initiation course</v>
       </c>
-      <c r="N10" s="3" t="str">
+      <c r="N10" s="2" t="str">
         <f>'Program targeting'!$B$10</f>
         <v>Adherence counselling</v>
       </c>
-      <c r="O10" s="3" t="str">
+      <c r="O10" s="2" t="str">
         <f>'Program targeting'!$B$11</f>
         <v>Online adherence course</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>0.4</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="8">
+      <c r="E11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="7">
         <v>0.3</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <v>0.35</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <v>0.1</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="7">
         <v>0.2</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C11 C8 C5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D11 D8 D5" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Synergistic,Best"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/databooks/progbook_usdt.xlsx
+++ b/tests/databooks/progbook_usdt.xlsx
@@ -15,68 +15,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>In this column, enter the baseline value for "Screening rate" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>In this column, enter the baseline value for "Diagnosis rate" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>In this column, enter the baseline value for "Initiation rate" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>In this column, enter the baseline value for "Loss-to-follow-up rate" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="37">
   <si>
@@ -152,16 +90,16 @@
     <t>OR</t>
   </si>
   <si>
-    <t>Capacity constraints</t>
-  </si>
-  <si>
     <t>Unit cost</t>
   </si>
   <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Saturation</t>
+  </si>
+  <si>
     <t>Coverage</t>
-  </si>
-  <si>
-    <t>Demand constraint</t>
   </si>
   <si>
     <t>Screening rate</t>
@@ -195,19 +133,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -227,7 +159,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF18C1FF"/>
+        <fgColor rgb="FF98E0FA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,22 +212,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -653,33 +583,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -690,19 +620,19 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -713,19 +643,19 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -736,19 +666,19 @@
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -759,19 +689,19 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -782,19 +712,19 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -805,19 +735,19 @@
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -828,19 +758,19 @@
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -851,19 +781,19 @@
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -874,19 +804,19 @@
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1272,904 +1202,904 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2">
         <v>2015</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="2">
         <v>2016</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="2">
         <v>2017</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="2">
         <v>2018</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6">
         <v>2000000</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8">
-        <v>1000</v>
-      </c>
-      <c r="H4" s="8"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
         <v>2000</v>
       </c>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3" t="s">
+      <c r="H6" s="6"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2017</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6">
+        <v>6300000</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
+        <v>299.9999999999999</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6">
+        <v>21000</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2">
         <v>2015</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F15" s="2">
         <v>2016</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G15" s="2">
         <v>2017</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H15" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8">
-        <v>6300000</v>
-      </c>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6">
+        <v>300000</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6">
+        <v>150</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8">
-        <v>299.9999999999999</v>
-      </c>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="3" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8">
-        <v>21000</v>
-      </c>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="3" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
         <v>2015</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F22" s="2">
         <v>2016</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G22" s="2">
         <v>2017</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H22" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="3" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8">
-        <v>300000</v>
-      </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="3" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6">
+        <v>250000</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="3" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6">
         <v>25</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8">
-        <v>150</v>
-      </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="3" t="s">
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8">
-        <v>2000</v>
-      </c>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="3" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6">
+        <v>10000</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2">
         <v>2015</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F29" s="2">
         <v>2016</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G29" s="2">
         <v>2017</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H29" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="3" t="s">
+    <row r="30" spans="1:8">
+      <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8">
-        <v>250000</v>
-      </c>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="3" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6">
+        <v>150000</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="3" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6">
+        <v>10</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6">
+        <v>15000</v>
+      </c>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2017</v>
+      </c>
+      <c r="H36" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6">
+        <v>2500000</v>
+      </c>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6">
+        <v>250</v>
+      </c>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="3" t="s">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6">
         <v>10000</v>
       </c>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="3" t="s">
+      <c r="H41" s="6"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F43" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G43" s="2">
+        <v>2017</v>
+      </c>
+      <c r="H43" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6">
+        <v>1500000</v>
+      </c>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6">
+        <v>300</v>
+      </c>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="B48" s="5"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6">
+        <v>5000</v>
+      </c>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C50" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6">
+      <c r="D50" s="2"/>
+      <c r="E50" s="2">
         <v>2015</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F50" s="2">
         <v>2016</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G50" s="2">
         <v>2017</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H50" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="3" t="s">
+    <row r="51" spans="1:8">
+      <c r="A51" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8">
-        <v>150000</v>
-      </c>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="3" t="s">
+      <c r="B51" s="5"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="3" t="s">
+      <c r="B52" s="5"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6">
+        <v>80</v>
+      </c>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8">
-        <v>10</v>
-      </c>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="3" t="s">
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8">
-        <v>15000</v>
-      </c>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="3" t="s">
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="6" t="s">
+      <c r="B55" s="5"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6">
+        <v>12500</v>
+      </c>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C57" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6">
+      <c r="D57" s="2"/>
+      <c r="E57" s="2">
         <v>2015</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F57" s="2">
         <v>2016</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G57" s="2">
         <v>2017</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H57" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="3" t="s">
+    <row r="58" spans="1:8">
+      <c r="A58" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8">
-        <v>2500000</v>
-      </c>
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="3" t="s">
+      <c r="B58" s="5"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6">
+        <v>500000</v>
+      </c>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="3" t="s">
+      <c r="B59" s="5"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6">
+        <v>20</v>
+      </c>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8">
-        <v>250</v>
-      </c>
-      <c r="H39" s="8"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="3" t="s">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8">
-        <v>10000</v>
-      </c>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="3" t="s">
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6">
-        <v>2015</v>
-      </c>
-      <c r="F43" s="6">
-        <v>2016</v>
-      </c>
-      <c r="G43" s="6">
-        <v>2017</v>
-      </c>
-      <c r="H43" s="6">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8">
-        <v>1500000</v>
-      </c>
-      <c r="H44" s="8"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8">
-        <v>300</v>
-      </c>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8">
-        <v>5000</v>
-      </c>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6">
-        <v>2015</v>
-      </c>
-      <c r="F50" s="6">
-        <v>2016</v>
-      </c>
-      <c r="G50" s="6">
-        <v>2017</v>
-      </c>
-      <c r="H50" s="6">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8">
-        <v>1000000</v>
-      </c>
-      <c r="H51" s="8"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8">
-        <v>80</v>
-      </c>
-      <c r="H53" s="8"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8">
-        <v>12500</v>
-      </c>
-      <c r="H54" s="8"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6">
-        <v>2015</v>
-      </c>
-      <c r="F57" s="6">
-        <v>2016</v>
-      </c>
-      <c r="G57" s="6">
-        <v>2017</v>
-      </c>
-      <c r="H57" s="6">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8">
-        <v>500000</v>
-      </c>
-      <c r="H58" s="8"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8">
-        <v>20</v>
-      </c>
-      <c r="H60" s="8"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8">
+      <c r="B62" s="5"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6">
         <v>25000</v>
       </c>
-      <c r="H61" s="8"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
+      <c r="H62" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
@@ -2561,54 +2491,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="3" t="str">
+      <c r="G1" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
         <v>Screening at pharmacies</v>
       </c>
-      <c r="H1" s="3" t="str">
+      <c r="H1" s="2" t="str">
         <f>'Program targeting'!$B$4</f>
         <v>Screening at PHC</v>
       </c>
-      <c r="I1" s="3" t="str">
+      <c r="I1" s="2" t="str">
         <f>'Program targeting'!$B$5</f>
         <v>Screening via outreach</v>
       </c>
-      <c r="J1" s="3" t="str">
+      <c r="J1" s="2" t="str">
         <f>'Program targeting'!$B$6</f>
         <v>Confirmatory test - doctor</v>
       </c>
-      <c r="K1" s="3" t="str">
+      <c r="K1" s="2" t="str">
         <f>'Program targeting'!$B$7</f>
         <v>Confirmatory test - nurse</v>
       </c>
-      <c r="L1" s="3" t="str">
+      <c r="L1" s="2" t="str">
         <f>'Program targeting'!$B$8</f>
         <v>Treatment initiation counselling</v>
       </c>
-      <c r="M1" s="3" t="str">
+      <c r="M1" s="2" t="str">
         <f>'Program targeting'!$B$9</f>
         <v>Treatment initiation course</v>
       </c>
-      <c r="N1" s="3" t="str">
+      <c r="N1" s="2" t="str">
         <f>'Program targeting'!$B$10</f>
         <v>Adherence counselling</v>
       </c>
-      <c r="O1" s="3" t="str">
+      <c r="O1" s="2" t="str">
         <f>'Program targeting'!$B$11</f>
         <v>Online adherence course</v>
       </c>
@@ -2618,81 +2548,81 @@
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="G2" s="8">
+      <c r="E2" s="5"/>
+      <c r="G2" s="6">
         <v>1</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="6">
         <v>1</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="6">
         <v>1</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="3" t="str">
+      <c r="G4" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
         <v>Screening at pharmacies</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="2" t="str">
         <f>'Program targeting'!$B$4</f>
         <v>Screening at PHC</v>
       </c>
-      <c r="I4" s="3" t="str">
+      <c r="I4" s="2" t="str">
         <f>'Program targeting'!$B$5</f>
         <v>Screening via outreach</v>
       </c>
-      <c r="J4" s="3" t="str">
+      <c r="J4" s="2" t="str">
         <f>'Program targeting'!$B$6</f>
         <v>Confirmatory test - doctor</v>
       </c>
-      <c r="K4" s="3" t="str">
+      <c r="K4" s="2" t="str">
         <f>'Program targeting'!$B$7</f>
         <v>Confirmatory test - nurse</v>
       </c>
-      <c r="L4" s="3" t="str">
+      <c r="L4" s="2" t="str">
         <f>'Program targeting'!$B$8</f>
         <v>Treatment initiation counselling</v>
       </c>
-      <c r="M4" s="3" t="str">
+      <c r="M4" s="2" t="str">
         <f>'Program targeting'!$B$9</f>
         <v>Treatment initiation course</v>
       </c>
-      <c r="N4" s="3" t="str">
+      <c r="N4" s="2" t="str">
         <f>'Program targeting'!$B$10</f>
         <v>Adherence counselling</v>
       </c>
-      <c r="O4" s="3" t="str">
+      <c r="O4" s="2" t="str">
         <f>'Program targeting'!$B$11</f>
         <v>Online adherence course</v>
       </c>
@@ -2702,79 +2632,79 @@
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8">
+      <c r="E5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6">
         <v>1</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="6">
         <v>1</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="3" t="str">
+      <c r="G7" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
         <v>Screening at pharmacies</v>
       </c>
-      <c r="H7" s="3" t="str">
+      <c r="H7" s="2" t="str">
         <f>'Program targeting'!$B$4</f>
         <v>Screening at PHC</v>
       </c>
-      <c r="I7" s="3" t="str">
+      <c r="I7" s="2" t="str">
         <f>'Program targeting'!$B$5</f>
         <v>Screening via outreach</v>
       </c>
-      <c r="J7" s="3" t="str">
+      <c r="J7" s="2" t="str">
         <f>'Program targeting'!$B$6</f>
         <v>Confirmatory test - doctor</v>
       </c>
-      <c r="K7" s="3" t="str">
+      <c r="K7" s="2" t="str">
         <f>'Program targeting'!$B$7</f>
         <v>Confirmatory test - nurse</v>
       </c>
-      <c r="L7" s="3" t="str">
+      <c r="L7" s="2" t="str">
         <f>'Program targeting'!$B$8</f>
         <v>Treatment initiation counselling</v>
       </c>
-      <c r="M7" s="3" t="str">
+      <c r="M7" s="2" t="str">
         <f>'Program targeting'!$B$9</f>
         <v>Treatment initiation course</v>
       </c>
-      <c r="N7" s="3" t="str">
+      <c r="N7" s="2" t="str">
         <f>'Program targeting'!$B$10</f>
         <v>Adherence counselling</v>
       </c>
-      <c r="O7" s="3" t="str">
+      <c r="O7" s="2" t="str">
         <f>'Program targeting'!$B$11</f>
         <v>Online adherence course</v>
       </c>
@@ -2784,79 +2714,79 @@
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>0</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8">
+      <c r="E8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="6">
         <v>1</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="6">
         <v>1</v>
       </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="3" t="str">
+      <c r="G10" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
         <v>Screening at pharmacies</v>
       </c>
-      <c r="H10" s="3" t="str">
+      <c r="H10" s="2" t="str">
         <f>'Program targeting'!$B$4</f>
         <v>Screening at PHC</v>
       </c>
-      <c r="I10" s="3" t="str">
+      <c r="I10" s="2" t="str">
         <f>'Program targeting'!$B$5</f>
         <v>Screening via outreach</v>
       </c>
-      <c r="J10" s="3" t="str">
+      <c r="J10" s="2" t="str">
         <f>'Program targeting'!$B$6</f>
         <v>Confirmatory test - doctor</v>
       </c>
-      <c r="K10" s="3" t="str">
+      <c r="K10" s="2" t="str">
         <f>'Program targeting'!$B$7</f>
         <v>Confirmatory test - nurse</v>
       </c>
-      <c r="L10" s="3" t="str">
+      <c r="L10" s="2" t="str">
         <f>'Program targeting'!$B$8</f>
         <v>Treatment initiation counselling</v>
       </c>
-      <c r="M10" s="3" t="str">
+      <c r="M10" s="2" t="str">
         <f>'Program targeting'!$B$9</f>
         <v>Treatment initiation course</v>
       </c>
-      <c r="N10" s="3" t="str">
+      <c r="N10" s="2" t="str">
         <f>'Program targeting'!$B$10</f>
         <v>Adherence counselling</v>
       </c>
-      <c r="O10" s="3" t="str">
+      <c r="O10" s="2" t="str">
         <f>'Program targeting'!$B$11</f>
         <v>Online adherence course</v>
       </c>
@@ -2866,31 +2796,31 @@
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="6">
         <v>0.4</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="8">
+      <c r="E11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6">
         <v>0.3</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="6">
         <v>0.35</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="6">
         <v>0.1</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="6">
         <v>0.2</v>
       </c>
     </row>
@@ -3210,6 +3140,5 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/databooks/progbook_usdt.xlsx
+++ b/tests/databooks/progbook_usdt.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="42">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -78,13 +78,19 @@
     <t>Online adherence course</t>
   </si>
   <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>Uncertainty</t>
   </si>
   <si>
     <t>Assumption</t>
   </si>
   <si>
-    <t>Total spend</t>
+    <t>Annual spend</t>
+  </si>
+  <si>
+    <t>$/year</t>
   </si>
   <si>
     <t>OR</t>
@@ -93,12 +99,21 @@
     <t>Unit cost</t>
   </si>
   <si>
+    <t>$/person</t>
+  </si>
+  <si>
     <t>Capacity</t>
   </si>
   <si>
+    <t>people/year</t>
+  </si>
+  <si>
     <t>Saturation</t>
   </si>
   <si>
+    <t>N.A.</t>
+  </si>
+  <si>
     <t>Coverage</t>
   </si>
   <si>
@@ -114,7 +129,7 @@
     <t>Impact interaction</t>
   </si>
   <si>
-    <t>additive</t>
+    <t>Additive</t>
   </si>
   <si>
     <t>best</t>
@@ -1189,7 +1204,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1197,13 +1212,15 @@
   <cols>
     <col min="1" max="1" width="36.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="str">
+        <f>'Program targeting'!$B$3</f>
+        <v>Screening at pharmacies</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>20</v>
@@ -1211,99 +1228,118 @@
       <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2">
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2">
         <v>2015</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>2016</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>2017</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F2" s="6"/>
-      <c r="G2" s="6">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6">
         <v>2000000</v>
       </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="6">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6">
         <v>1000</v>
       </c>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="6">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6">
         <v>2000</v>
       </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="str">
+        <f>'Program targeting'!$B$4</f>
+        <v>Screening at PHC</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>20</v>
@@ -1311,99 +1347,118 @@
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2">
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
         <v>2015</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>2016</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>2017</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="6">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
         <v>6300000</v>
       </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="6">
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
         <v>299.9999999999999</v>
       </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="6">
+      <c r="G13" s="6"/>
+      <c r="H13" s="6">
         <v>21000</v>
       </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="str">
+        <f>'Program targeting'!$B$5</f>
+        <v>Screening via outreach</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>20</v>
@@ -1411,99 +1466,118 @@
       <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2">
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
         <v>2015</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>2016</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>2017</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="6">
+      <c r="G16" s="6"/>
+      <c r="H16" s="6">
         <v>300000</v>
       </c>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="6">
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
         <v>150</v>
       </c>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="6">
+      <c r="G20" s="6"/>
+      <c r="H20" s="6">
         <v>2000</v>
       </c>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="2" t="s">
-        <v>14</v>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2" t="str">
+        <f>'Program targeting'!$B$6</f>
+        <v>Confirmatory test - doctor</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>20</v>
@@ -1511,99 +1585,118 @@
       <c r="C22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2">
+      <c r="D22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
         <v>2015</v>
       </c>
-      <c r="F22" s="2">
+      <c r="G22" s="2">
         <v>2016</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>2017</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="6"/>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="6">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6">
         <v>250000</v>
       </c>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="6">
-        <v>25</v>
-      </c>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="G24" s="6"/>
+      <c r="H24" s="6">
+        <v>25</v>
+      </c>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="6">
+      <c r="G27" s="6"/>
+      <c r="H27" s="6">
         <v>10000</v>
       </c>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="2" t="s">
-        <v>15</v>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2" t="str">
+        <f>'Program targeting'!$B$7</f>
+        <v>Confirmatory test - nurse</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>20</v>
@@ -1611,99 +1704,118 @@
       <c r="C29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2">
+      <c r="D29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2">
         <v>2015</v>
       </c>
-      <c r="F29" s="2">
+      <c r="G29" s="2">
         <v>2016</v>
       </c>
-      <c r="G29" s="2">
+      <c r="H29" s="2">
         <v>2017</v>
       </c>
-      <c r="H29" s="2">
+      <c r="I29" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="6"/>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="6">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6">
         <v>150000</v>
       </c>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="6">
+      <c r="G31" s="6"/>
+      <c r="H31" s="6">
         <v>10</v>
       </c>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="6">
+      <c r="G34" s="6"/>
+      <c r="H34" s="6">
         <v>15000</v>
       </c>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="2" t="s">
-        <v>16</v>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="2" t="str">
+        <f>'Program targeting'!$B$8</f>
+        <v>Treatment initiation counselling</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>20</v>
@@ -1711,99 +1823,118 @@
       <c r="C36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2">
+      <c r="D36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2">
         <v>2015</v>
       </c>
-      <c r="F36" s="2">
+      <c r="G36" s="2">
         <v>2016</v>
       </c>
-      <c r="G36" s="2">
+      <c r="H36" s="2">
         <v>2017</v>
       </c>
-      <c r="H36" s="2">
+      <c r="I36" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:9">
       <c r="A37" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="6"/>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="6">
+      <c r="G37" s="6"/>
+      <c r="H37" s="6">
         <v>2500000</v>
       </c>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="6">
+      <c r="G38" s="6"/>
+      <c r="H38" s="6">
         <v>250</v>
       </c>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
       <c r="C39" s="5"/>
-      <c r="D39" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
       <c r="C40" s="5"/>
-      <c r="D40" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="6">
+      <c r="G41" s="6"/>
+      <c r="H41" s="6">
         <v>10000</v>
       </c>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="2" t="s">
-        <v>17</v>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="2" t="str">
+        <f>'Program targeting'!$B$9</f>
+        <v>Treatment initiation course</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>20</v>
@@ -1811,99 +1942,118 @@
       <c r="C43" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2">
+      <c r="D43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2">
         <v>2015</v>
       </c>
-      <c r="F43" s="2">
+      <c r="G43" s="2">
         <v>2016</v>
       </c>
-      <c r="G43" s="2">
+      <c r="H43" s="2">
         <v>2017</v>
       </c>
-      <c r="H43" s="2">
+      <c r="I43" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:9">
       <c r="A44" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="6"/>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F44" s="6"/>
-      <c r="G44" s="6">
+      <c r="G44" s="6"/>
+      <c r="H44" s="6">
         <v>1500000</v>
       </c>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="6">
+      <c r="G45" s="6"/>
+      <c r="H45" s="6">
         <v>300</v>
       </c>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
       <c r="C46" s="5"/>
-      <c r="D46" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="6">
+      <c r="G48" s="6"/>
+      <c r="H48" s="6">
         <v>5000</v>
       </c>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="2" t="s">
-        <v>18</v>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="2" t="str">
+        <f>'Program targeting'!$B$10</f>
+        <v>Adherence counselling</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>20</v>
@@ -1911,99 +2061,118 @@
       <c r="C50" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2">
+      <c r="D50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2">
         <v>2015</v>
       </c>
-      <c r="F50" s="2">
+      <c r="G50" s="2">
         <v>2016</v>
       </c>
-      <c r="G50" s="2">
+      <c r="H50" s="2">
         <v>2017</v>
       </c>
-      <c r="H50" s="2">
+      <c r="I50" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:9">
       <c r="A51" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="6"/>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="6">
+      <c r="G51" s="6"/>
+      <c r="H51" s="6">
         <v>1000000</v>
       </c>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F52" s="6"/>
-      <c r="G52" s="6">
+      <c r="G52" s="6"/>
+      <c r="H52" s="6">
         <v>80</v>
       </c>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B54" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
       <c r="C54" s="5"/>
-      <c r="D54" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E55" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="B55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F55" s="6"/>
-      <c r="G55" s="6">
+      <c r="G55" s="6"/>
+      <c r="H55" s="6">
         <v>12500</v>
       </c>
-      <c r="H55" s="6"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="2" t="s">
-        <v>19</v>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="2" t="str">
+        <f>'Program targeting'!$B$11</f>
+        <v>Online adherence course</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>20</v>
@@ -2011,457 +2180,531 @@
       <c r="C57" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2">
+      <c r="D57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2">
         <v>2015</v>
       </c>
-      <c r="F57" s="2">
+      <c r="G57" s="2">
         <v>2016</v>
       </c>
-      <c r="G57" s="2">
+      <c r="H57" s="2">
         <v>2017</v>
       </c>
-      <c r="H57" s="2">
+      <c r="I57" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:9">
       <c r="A58" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E58" s="6"/>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F58" s="6"/>
-      <c r="G58" s="6">
+      <c r="G58" s="6"/>
+      <c r="H58" s="6">
         <v>500000</v>
       </c>
-      <c r="H58" s="6"/>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E59" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="B59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F59" s="6"/>
-      <c r="G59" s="6">
+      <c r="G59" s="6"/>
+      <c r="H59" s="6">
         <v>20</v>
       </c>
-      <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B60" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
       <c r="C60" s="5"/>
-      <c r="D60" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B61" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
       <c r="C61" s="5"/>
-      <c r="D61" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E62" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="B62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F62" s="6"/>
-      <c r="G62" s="6">
+      <c r="G62" s="6"/>
+      <c r="H62" s="6">
         <v>25000</v>
       </c>
-      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
     <cfRule type="expression" dxfId="1" priority="13">
-      <formula>COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F10:I10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="14">
-      <formula>AND(COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
+      <formula>AND(COUNTIF(F10:I10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
     <cfRule type="expression" dxfId="1" priority="15">
-      <formula>COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F11:I11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="16">
-      <formula>AND(COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
+      <formula>AND(COUNTIF(F11:I11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
     <cfRule type="expression" dxfId="1" priority="17">
-      <formula>COUNTIF(E12:H12,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F12:I12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="18">
-      <formula>AND(COUNTIF(E12:H12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
+      <formula>AND(COUNTIF(F12:I12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
     <cfRule type="expression" dxfId="1" priority="19">
-      <formula>COUNTIF(E13:H13,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F13:I13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="20">
-      <formula>AND(COUNTIF(E13:H13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
+      <formula>AND(COUNTIF(F13:I13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
     <cfRule type="expression" dxfId="1" priority="21">
-      <formula>COUNTIF(E16:H16,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F16:I16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="22">
-      <formula>AND(COUNTIF(E16:H16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
+      <formula>AND(COUNTIF(F16:I16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
     <cfRule type="expression" dxfId="1" priority="23">
-      <formula>COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F17:I17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="24">
-      <formula>AND(COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
+      <formula>AND(COUNTIF(F17:I17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
     <cfRule type="expression" dxfId="1" priority="25">
-      <formula>COUNTIF(E18:H18,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F18:I18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="26">
-      <formula>AND(COUNTIF(E18:H18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
+      <formula>AND(COUNTIF(F18:I18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
     <cfRule type="expression" dxfId="1" priority="27">
-      <formula>COUNTIF(E19:H19,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F19:I19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="28">
-      <formula>AND(COUNTIF(E19:H19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
+      <formula>AND(COUNTIF(F19:I19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F2:I2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="2">
-      <formula>AND(COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
+      <formula>AND(COUNTIF(F2:I2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
     <cfRule type="expression" dxfId="1" priority="29">
-      <formula>COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F20:I20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="30">
-      <formula>AND(COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
+      <formula>AND(COUNTIF(F20:I20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
     <cfRule type="expression" dxfId="1" priority="31">
-      <formula>COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F23:I23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="32">
-      <formula>AND(COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
+      <formula>AND(COUNTIF(F23:I23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
     <cfRule type="expression" dxfId="1" priority="33">
-      <formula>COUNTIF(E24:H24,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F24:I24,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="34">
-      <formula>AND(COUNTIF(E24:H24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C24)))</formula>
+      <formula>AND(COUNTIF(F24:I24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
     <cfRule type="expression" dxfId="1" priority="35">
-      <formula>COUNTIF(E25:H25,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F25:I25,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="36">
-      <formula>AND(COUNTIF(E25:H25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C25)))</formula>
+      <formula>AND(COUNTIF(F25:I25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
     <cfRule type="expression" dxfId="1" priority="37">
-      <formula>COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F26:I26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="38">
-      <formula>AND(COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
+      <formula>AND(COUNTIF(F26:I26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
     <cfRule type="expression" dxfId="1" priority="39">
-      <formula>COUNTIF(E27:H27,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F27:I27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="40">
-      <formula>AND(COUNTIF(E27:H27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
+      <formula>AND(COUNTIF(F27:I27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>COUNTIF(E3:H3,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F3:I3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>AND(COUNTIF(E3:H3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
+      <formula>AND(COUNTIF(F3:I3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
     <cfRule type="expression" dxfId="1" priority="41">
-      <formula>COUNTIF(E30:H30,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F30:I30,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="42">
-      <formula>AND(COUNTIF(E30:H30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C30)))</formula>
+      <formula>AND(COUNTIF(F30:I30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
     <cfRule type="expression" dxfId="1" priority="43">
-      <formula>COUNTIF(E31:H31,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F31:I31,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="44">
-      <formula>AND(COUNTIF(E31:H31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C31)))</formula>
+      <formula>AND(COUNTIF(F31:I31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
     <cfRule type="expression" dxfId="1" priority="45">
-      <formula>COUNTIF(E32:H32,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F32:I32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="46">
-      <formula>AND(COUNTIF(E32:H32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
+      <formula>AND(COUNTIF(F32:I32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
     <cfRule type="expression" dxfId="1" priority="47">
-      <formula>COUNTIF(E33:H33,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F33:I33,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="48">
-      <formula>AND(COUNTIF(E33:H33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C33)))</formula>
+      <formula>AND(COUNTIF(F33:I33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
     <cfRule type="expression" dxfId="1" priority="49">
-      <formula>COUNTIF(E34:H34,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F34:I34,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="50">
-      <formula>AND(COUNTIF(E34:H34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C34)))</formula>
+      <formula>AND(COUNTIF(F34:I34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
     <cfRule type="expression" dxfId="1" priority="51">
-      <formula>COUNTIF(E37:H37,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F37:I37,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="52">
-      <formula>AND(COUNTIF(E37:H37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C37)))</formula>
+      <formula>AND(COUNTIF(F37:I37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
     <cfRule type="expression" dxfId="1" priority="53">
-      <formula>COUNTIF(E38:H38,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F38:I38,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="54">
-      <formula>AND(COUNTIF(E38:H38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C38)))</formula>
+      <formula>AND(COUNTIF(F38:I38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
     <cfRule type="expression" dxfId="1" priority="55">
-      <formula>COUNTIF(E39:H39,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F39:I39,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="56">
-      <formula>AND(COUNTIF(E39:H39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C39)))</formula>
+      <formula>AND(COUNTIF(F39:I39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>COUNTIF(E4:H4,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F4:I4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="6">
-      <formula>AND(COUNTIF(E4:H4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
+      <formula>AND(COUNTIF(F4:I4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
     <cfRule type="expression" dxfId="1" priority="57">
-      <formula>COUNTIF(E40:H40,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F40:I40,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="58">
-      <formula>AND(COUNTIF(E40:H40,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C40)))</formula>
+      <formula>AND(COUNTIF(F40:I40,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
     <cfRule type="expression" dxfId="1" priority="59">
-      <formula>COUNTIF(E41:H41,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F41:I41,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="60">
-      <formula>AND(COUNTIF(E41:H41,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C41)))</formula>
+      <formula>AND(COUNTIF(F41:I41,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
     <cfRule type="expression" dxfId="1" priority="61">
-      <formula>COUNTIF(E44:H44,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F44:I44,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="62">
-      <formula>AND(COUNTIF(E44:H44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C44)))</formula>
+      <formula>AND(COUNTIF(F44:I44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
     <cfRule type="expression" dxfId="1" priority="63">
-      <formula>COUNTIF(E45:H45,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F45:I45,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="64">
-      <formula>AND(COUNTIF(E45:H45,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C45)))</formula>
+      <formula>AND(COUNTIF(F45:I45,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
     <cfRule type="expression" dxfId="1" priority="65">
-      <formula>COUNTIF(E46:H46,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F46:I46,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="66">
-      <formula>AND(COUNTIF(E46:H46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C46)))</formula>
+      <formula>AND(COUNTIF(F46:I46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
     <cfRule type="expression" dxfId="1" priority="67">
-      <formula>COUNTIF(E47:H47,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F47:I47,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="68">
-      <formula>AND(COUNTIF(E47:H47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C47)))</formula>
+      <formula>AND(COUNTIF(F47:I47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
     <cfRule type="expression" dxfId="1" priority="69">
-      <formula>COUNTIF(E48:H48,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F48:I48,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="70">
-      <formula>AND(COUNTIF(E48:H48,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C48)))</formula>
+      <formula>AND(COUNTIF(F48:I48,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F5:I5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="8">
-      <formula>AND(COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
+      <formula>AND(COUNTIF(F5:I5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
     <cfRule type="expression" dxfId="1" priority="71">
-      <formula>COUNTIF(E51:H51,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F51:I51,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="72">
-      <formula>AND(COUNTIF(E51:H51,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C51)))</formula>
+      <formula>AND(COUNTIF(F51:I51,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
     <cfRule type="expression" dxfId="1" priority="73">
-      <formula>COUNTIF(E52:H52,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F52:I52,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="74">
-      <formula>AND(COUNTIF(E52:H52,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C52)))</formula>
+      <formula>AND(COUNTIF(F52:I52,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53">
     <cfRule type="expression" dxfId="1" priority="75">
-      <formula>COUNTIF(E53:H53,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F53:I53,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="76">
-      <formula>AND(COUNTIF(E53:H53,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C53)))</formula>
+      <formula>AND(COUNTIF(F53:I53,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
     <cfRule type="expression" dxfId="1" priority="77">
-      <formula>COUNTIF(E54:H54,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F54:I54,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="78">
-      <formula>AND(COUNTIF(E54:H54,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C54)))</formula>
+      <formula>AND(COUNTIF(F54:I54,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
     <cfRule type="expression" dxfId="1" priority="79">
-      <formula>COUNTIF(E55:H55,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F55:I55,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="80">
-      <formula>AND(COUNTIF(E55:H55,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C55)))</formula>
+      <formula>AND(COUNTIF(F55:I55,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
     <cfRule type="expression" dxfId="1" priority="81">
-      <formula>COUNTIF(E58:H58,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F58:I58,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="82">
-      <formula>AND(COUNTIF(E58:H58,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C58)))</formula>
+      <formula>AND(COUNTIF(F58:I58,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
     <cfRule type="expression" dxfId="1" priority="83">
-      <formula>COUNTIF(E59:H59,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F59:I59,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="84">
-      <formula>AND(COUNTIF(E59:H59,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C59)))</formula>
+      <formula>AND(COUNTIF(F59:I59,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
     <cfRule type="expression" dxfId="1" priority="9">
-      <formula>COUNTIF(E6:H6,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F6:I6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="10">
-      <formula>AND(COUNTIF(E6:H6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
+      <formula>AND(COUNTIF(F6:I6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
     <cfRule type="expression" dxfId="1" priority="85">
-      <formula>COUNTIF(E60:H60,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F60:I60,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="86">
-      <formula>AND(COUNTIF(E60:H60,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C60)))</formula>
+      <formula>AND(COUNTIF(F60:I60,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
     <cfRule type="expression" dxfId="1" priority="87">
-      <formula>COUNTIF(E61:H61,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F61:I61,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="88">
-      <formula>AND(COUNTIF(E61:H61,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C61)))</formula>
+      <formula>AND(COUNTIF(F61:I61,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
     <cfRule type="expression" dxfId="1" priority="89">
-      <formula>COUNTIF(E62:H62,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F62:I62,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="90">
-      <formula>AND(COUNTIF(E62:H62,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C62)))</formula>
+      <formula>AND(COUNTIF(F62:I62,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
     <cfRule type="expression" dxfId="1" priority="11">
-      <formula>COUNTIF(E9:H9,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F9:I9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="12">
-      <formula>AND(COUNTIF(E9:H9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
+      <formula>AND(COUNTIF(F9:I9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>"$/person,$/person/year"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+      <formula1>"people/year,people"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
+      <formula1>"$/person,$/person/year"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
+      <formula1>"people/year,people"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+      <formula1>"$/person,$/person/year"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+      <formula1>"people/year,people"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+      <formula1>"$/person,$/person/year"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+      <formula1>"people/year,people"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+      <formula1>"$/person,$/person/year"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+      <formula1>"people/year,people"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
+      <formula1>"$/person,$/person/year"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
+      <formula1>"people/year,people"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
+      <formula1>"$/person,$/person/year"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
+      <formula1>"people/year,people"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52">
+      <formula1>"$/person,$/person/year"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
+      <formula1>"people/year,people"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
+      <formula1>"$/person,$/person/year"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B60">
+      <formula1>"people/year,people"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2492,19 +2735,19 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
@@ -2552,10 +2795,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E2" s="5"/>
       <c r="G2" s="6">
@@ -2576,19 +2819,19 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
@@ -2636,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E5" s="5"/>
       <c r="G5" s="5"/>
@@ -2658,19 +2901,19 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
@@ -2718,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E8" s="5"/>
       <c r="G8" s="5"/>
@@ -2740,19 +2983,19 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
@@ -2800,10 +3043,10 @@
         <v>0.4</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E11" s="5"/>
       <c r="G11" s="5"/>

--- a/tests/databooks/progbook_usdt.xlsx
+++ b/tests/databooks/progbook_usdt.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="41">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>Additive</t>
-  </si>
-  <si>
-    <t>best</t>
   </si>
   <si>
     <t>Diagnosis rate</t>
@@ -2797,9 +2794,7 @@
       <c r="C2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="G2" s="6">
         <v>1</v>
@@ -2819,7 +2814,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>34</v>
@@ -2881,9 +2876,7 @@
       <c r="C5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -2901,7 +2894,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>34</v>
@@ -2963,9 +2956,7 @@
       <c r="C8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -2983,7 +2974,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>34</v>
@@ -3045,9 +3036,7 @@
       <c r="C11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -3068,11 +3057,43 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="1" priority="79">
+      <formula>COUNTIF(F11:O11,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="80">
+      <formula>AND(COUNTIF(F11:O11,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="1" priority="19">
+      <formula>COUNTIF(F2:O2,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="20">
+      <formula>AND(COUNTIF(F2:O2,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="1" priority="39">
+      <formula>COUNTIF(F5:O5,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="40">
+      <formula>AND(COUNTIF(F5:O5,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="1" priority="59">
+      <formula>COUNTIF(F8:O8,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="60">
+      <formula>AND(COUNTIF(F8:O8,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="2" priority="55">
+    <cfRule type="expression" dxfId="2" priority="61">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="56">
+    <cfRule type="expression" dxfId="3" priority="62">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3085,26 +3106,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="2" priority="19">
+    <cfRule type="expression" dxfId="2" priority="21">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="20">
+    <cfRule type="expression" dxfId="3" priority="22">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="2" priority="37">
+    <cfRule type="expression" dxfId="2" priority="41">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="38">
+    <cfRule type="expression" dxfId="3" priority="42">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="2" priority="57">
+    <cfRule type="expression" dxfId="2" priority="63">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="58">
+    <cfRule type="expression" dxfId="3" priority="64">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3117,26 +3138,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="2" priority="21">
+    <cfRule type="expression" dxfId="2" priority="23">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="22">
+    <cfRule type="expression" dxfId="3" priority="24">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="2" priority="39">
+    <cfRule type="expression" dxfId="2" priority="43">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="40">
+    <cfRule type="expression" dxfId="3" priority="44">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="2" priority="59">
+    <cfRule type="expression" dxfId="2" priority="65">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="60">
+    <cfRule type="expression" dxfId="3" priority="66">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3149,26 +3170,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="2" priority="23">
+    <cfRule type="expression" dxfId="2" priority="25">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="24">
+    <cfRule type="expression" dxfId="3" priority="26">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="2" priority="41">
+    <cfRule type="expression" dxfId="2" priority="45">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="42">
+    <cfRule type="expression" dxfId="3" priority="46">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="2" priority="61">
+    <cfRule type="expression" dxfId="2" priority="67">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="62">
+    <cfRule type="expression" dxfId="3" priority="68">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3181,26 +3202,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="2" priority="25">
+    <cfRule type="expression" dxfId="2" priority="27">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="26">
+    <cfRule type="expression" dxfId="3" priority="28">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="2" priority="43">
+    <cfRule type="expression" dxfId="2" priority="47">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="44">
+    <cfRule type="expression" dxfId="3" priority="48">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="2" priority="63">
+    <cfRule type="expression" dxfId="2" priority="69">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="64">
+    <cfRule type="expression" dxfId="3" priority="70">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3213,26 +3234,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="2" priority="27">
+    <cfRule type="expression" dxfId="2" priority="29">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="28">
+    <cfRule type="expression" dxfId="3" priority="30">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="2" priority="45">
+    <cfRule type="expression" dxfId="2" priority="49">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="46">
+    <cfRule type="expression" dxfId="3" priority="50">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="2" priority="65">
+    <cfRule type="expression" dxfId="2" priority="71">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="66">
+    <cfRule type="expression" dxfId="3" priority="72">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3245,26 +3266,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="2" priority="29">
+    <cfRule type="expression" dxfId="2" priority="31">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="30">
+    <cfRule type="expression" dxfId="3" priority="32">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="2" priority="47">
+    <cfRule type="expression" dxfId="2" priority="51">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="48">
+    <cfRule type="expression" dxfId="3" priority="52">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="expression" dxfId="2" priority="67">
+    <cfRule type="expression" dxfId="2" priority="73">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="68">
+    <cfRule type="expression" dxfId="3" priority="74">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3277,26 +3298,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="2" priority="31">
+    <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="32">
+    <cfRule type="expression" dxfId="3" priority="34">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="2" priority="49">
+    <cfRule type="expression" dxfId="2" priority="53">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="50">
+    <cfRule type="expression" dxfId="3" priority="54">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11">
-    <cfRule type="expression" dxfId="2" priority="69">
+    <cfRule type="expression" dxfId="2" priority="75">
       <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="70">
+    <cfRule type="expression" dxfId="3" priority="76">
       <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3309,26 +3330,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="expression" dxfId="2" priority="33">
+    <cfRule type="expression" dxfId="2" priority="35">
       <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="34">
+    <cfRule type="expression" dxfId="3" priority="36">
       <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="expression" dxfId="2" priority="51">
+    <cfRule type="expression" dxfId="2" priority="55">
       <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="52">
+    <cfRule type="expression" dxfId="3" priority="56">
       <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="expression" dxfId="2" priority="71">
+    <cfRule type="expression" dxfId="2" priority="77">
       <formula>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="72">
+    <cfRule type="expression" dxfId="3" priority="78">
       <formula>'Program targeting'!$C$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3341,18 +3362,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="2" priority="35">
+    <cfRule type="expression" dxfId="2" priority="37">
       <formula>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="36">
+    <cfRule type="expression" dxfId="3" priority="38">
       <formula>'Program targeting'!$C$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="expression" dxfId="2" priority="53">
+    <cfRule type="expression" dxfId="2" priority="57">
       <formula>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="54">
+    <cfRule type="expression" dxfId="3" priority="58">
       <formula>'Program targeting'!$C$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tests/databooks/progbook_usdt.xlsx
+++ b/tests/databooks/progbook_usdt.xlsx
@@ -2648,55 +2648,55 @@
   </conditionalFormatting>
   <dataValidations count="18">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B60">
       <formula1>"people/year,people"</formula1>
